--- a/데이터테이블/AI 데이터 테이블.xlsx
+++ b/데이터테이블/AI 데이터 테이블.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a6f263b7920f829/문서/GitHub/RevoltDay/데이터테이블/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{564101F5-37DE-4696-9083-6D52FBD89847}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D83694C-A0F2-424B-98D9-06ADED3AEF81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2" xr2:uid="{7E189DAF-4CB5-4728-A485-3CCEC75AEED5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>HP</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -298,6 +298,38 @@
   </si>
   <si>
     <t>바이오칩 과다 증상자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fightdice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random.Range 1 ~ 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dectect</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,13 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -460,15 +486,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -478,6 +495,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -801,188 +833,188 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="4">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="10">
+      <c r="J12" s="10"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="5">
         <v>101</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="4" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="11">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="6">
         <v>201</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="4">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="3">
         <v>301</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="11">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C16" s="6">
         <v>401</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="4">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C17" s="3">
         <v>501</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="4">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C18" s="3">
         <v>601</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1004,230 +1036,225 @@
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="L8" s="7" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="L8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="L9" s="2" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="L9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K29" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D5:I5"/>
@@ -1236,6 +1263,11 @@
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,60 +1276,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0386FCF-3AE4-4813-B6D5-1E220CB43951}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>101</v>
       </c>
@@ -1332,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>102</v>
       </c>
@@ -1367,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>103</v>
       </c>
@@ -1402,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>104</v>
       </c>
@@ -1437,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>105</v>
       </c>
@@ -1472,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>106</v>
       </c>
@@ -1507,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>107</v>
       </c>
@@ -1542,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>108</v>
       </c>
@@ -1577,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>109</v>
       </c>
@@ -1612,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>110</v>
       </c>
@@ -1647,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>111</v>
       </c>
@@ -1680,10 +1712,51 @@
       </c>
       <c r="L13" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/데이터테이블/AI 데이터 테이블.xlsx
+++ b/데이터테이블/AI 데이터 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D83694C-A0F2-424B-98D9-06ADED3AEF81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508C331-6ABB-42FF-BAE3-154367250706}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2" xr2:uid="{7E189DAF-4CB5-4728-A485-3CCEC75AEED5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
   <si>
     <t>HP</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Fightdice</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -301,18 +297,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fightdice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>move</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -321,15 +305,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Random.Range 1 ~ 7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Dectect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameEN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameEN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 AI의 이름(프리팹 용)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gangster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bully</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kyunhan`sescort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geonminwon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanjeongim`s servent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>violence protesters</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petty criminal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>first offender</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>biochip zombie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>biochip bully</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>biochip gangster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제로 자료 입력할때 띄워쓰기는 없앨 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kangwonjin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박우주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkwuju</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random.Range 1 ~ 7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +440,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +483,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -459,6 +543,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -471,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,6 +630,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,7 +979,7 @@
   <sheetData>
     <row r="8" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -872,23 +1014,23 @@
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.4">
@@ -896,16 +1038,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="3"/>
@@ -915,20 +1057,20 @@
         <v>101</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.4">
@@ -936,10 +1078,10 @@
         <v>201</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -953,10 +1095,10 @@
         <v>301</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -970,10 +1112,10 @@
         <v>401</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -987,10 +1129,10 @@
         <v>501</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1004,10 +1146,10 @@
         <v>601</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1030,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E23556-D52A-4EBD-8217-29D2A9E5AF78}">
-  <dimension ref="C4:P29"/>
+  <dimension ref="C4:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="D7" sqref="D7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1043,10 +1185,10 @@
   <sheetData>
     <row r="4" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1056,10 +1198,10 @@
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1069,20 +1211,20 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C7" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>11</v>
@@ -1095,7 +1237,7 @@
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>10</v>
@@ -1105,53 +1247,53 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="L8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C9" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
+      <c r="L10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1161,10 +1303,10 @@
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1174,10 +1316,10 @@
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1187,10 +1329,10 @@
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1198,34 +1340,42 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.4">
-      <c r="K19" t="s">
-        <v>24</v>
-      </c>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.4">
@@ -1235,39 +1385,45 @@
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K29" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K30" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D6:I6"/>
     <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L8:P8"/>
     <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1276,81 +1432,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0386FCF-3AE4-4813-B6D5-1E220CB43951}">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1">
         <v>100</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
@@ -1363,32 +1523,35 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="1">
         <v>99</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
@@ -1398,244 +1561,265 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1">
         <v>90</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="1">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1">
         <v>80</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>15</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
       <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="1">
         <v>70</v>
-      </c>
-      <c r="H7" s="1">
-        <v>15</v>
       </c>
       <c r="I7" s="1">
         <v>15</v>
       </c>
       <c r="J7" s="1">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>80</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
       <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10</v>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
       </c>
       <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
         <v>80</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="1">
         <v>12</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1">
         <v>15</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>70</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>15</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
       <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" s="1">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10</v>
       </c>
       <c r="H11" s="1">
         <v>10</v>
       </c>
       <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
         <v>80</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -1643,66 +1827,72 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>70</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>30</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
       <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1">
         <v>15</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H13" s="1">
         <v>50</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1713,48 +1903,90 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D15" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4</v>
       </c>
       <c r="H18" s="1">
         <v>4</v>
       </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D15:F15"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/데이터테이블/AI 데이터 테이블.xlsx
+++ b/데이터테이블/AI 데이터 테이블.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WOOJIN~1\DOCUME~1\카카오~1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508C331-6ABB-42FF-BAE3-154367250706}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9248A914-3FD6-4482-AAEC-D053444AD5D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2" xr2:uid="{7E189DAF-4CB5-4728-A485-3CCEC75AEED5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="정책" sheetId="2" r:id="rId2"/>
     <sheet name="List" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>HP</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -282,17 +276,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Random.Range 1 ~ 4</t>
-  </si>
-  <si>
-    <t>Random.Range 1 ~ 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Random.Range 1 ~ 7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>바이오칩 과다 증상자</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -305,10 +288,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Random.Range 1 ~ 7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Dectect</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -389,7 +368,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Random.Range 1 ~ 7</t>
+    <t>Grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 등장 등급 (일반 이슈 1 / 긴급 이슈 2 / 봉쇄 이슈 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fightdicemin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fightdicemax</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -580,6 +579,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,6 +653,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -641,16 +692,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588860F-1317-4BEC-BFB1-7C70575617A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C8:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -978,12 +1038,12 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="8" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -991,10 +1051,10 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1025,10 +1085,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1046,10 +1106,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.4">
@@ -1065,10 +1125,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="3" t="s">
         <v>56</v>
       </c>
@@ -1171,11 +1231,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E23556-D52A-4EBD-8217-29D2A9E5AF78}">
-  <dimension ref="C4:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C4:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1187,243 +1247,257 @@
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="L9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="L10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="L10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="L11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.4">
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K31" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="D4:I4"/>
+    <mergeCell ref="L11:P11"/>
     <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
     <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1431,561 +1505,635 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0386FCF-3AE4-4813-B6D5-1E220CB43951}">
-  <dimension ref="B2:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" customWidth="1"/>
-    <col min="7" max="7" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <v>101</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>102</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>99</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>103</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>90</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>104</v>
+      </c>
+      <c r="C7" s="26">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>80</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>105</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>70</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="1">
+        <v>15</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>106</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>80</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>107</v>
+      </c>
+      <c r="C10" s="26">
         <v>3</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>80</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>108</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1">
+        <v>70</v>
+      </c>
+      <c r="L11" s="1">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>109</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1">
+        <v>80</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>110</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
-        <v>101</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>70</v>
+      </c>
+      <c r="L13" s="1">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>111</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>50</v>
+      </c>
+      <c r="K14" s="1">
+        <v>50</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="E16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="1">
-        <v>99</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <v>103</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="1">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="1">
-        <v>90</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="1">
-        <v>104</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="F19" s="1">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="1">
-        <v>80</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
-        <v>105</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="1">
-        <v>70</v>
-      </c>
-      <c r="I7" s="1">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
-        <v>106</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
-        <v>80</v>
-      </c>
-      <c r="J8" s="1">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
-        <v>107</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <v>80</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
-        <v>108</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="1">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="1">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1">
-        <v>70</v>
-      </c>
-      <c r="J10" s="1">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
-        <v>109</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="1">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
-        <v>80</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
-        <v>110</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>70</v>
-      </c>
-      <c r="J12" s="1">
-        <v>30</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>2</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <v>111</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="1">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="1">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1">
-        <v>50</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="D15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="1">
+      <c r="K20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D15:F15"/>
+  <mergeCells count="4">
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
